--- a/biology/Botanique/Cercidiphyllaceae/Cercidiphyllaceae.xlsx
+++ b/biology/Botanique/Cercidiphyllaceae/Cercidiphyllaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cercidiphyllaceae sont une petite famille de plantes dicotylédones qui ne comprend qu'un seul genre, Cercidiphyllum. 
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre-type Cercidiphyllum qui vient du grec κέρκης / kerkis, peuplier, et φύλλων / fyllon, feuille. Cercis est le nom ancien utilisé par  Theophraste (371 - 288 av. J.-C.), pour désigner l'arbre de Judée, Cercis siliquastrum (Fabaceae) ; les feuilles du  Cercidiphyllum ressemblent en effet à celles du Cercis[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre-type Cercidiphyllum qui vient du grec κέρκης / kerkis, peuplier, et φύλλων / fyllon, feuille. Cercis est le nom ancien utilisé par  Theophraste (371 - 288 av. J.-C.), pour désigner l'arbre de Judée, Cercis siliquastrum (Fabaceae) ; les feuilles du  Cercidiphyllum ressemblent en effet à celles du Cercis.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (27 avr. 2010)[2], World Checklist of Selected Plant Families (WCSP)  (27 avr. 2010)[3], NCBI  (27 avr. 2010)[4], DELTA Angio           (27 avr. 2010)[5] et ITIS      (27 avr. 2010)[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (27 avr. 2010), World Checklist of Selected Plant Families (WCSP)  (27 avr. 2010), NCBI  (27 avr. 2010), DELTA Angio           (27 avr. 2010) et ITIS      (27 avr. 2010) :
 genre Cercidiphyllum  Siebold &amp; Zucc. (1846)</t>
         </is>
       </c>
@@ -573,13 +589,15 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (27 avr. 2010)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (27 avr. 2010) :
 genre Cercidiphyllum  Siebold &amp; Zucc. (1846)
 Cercidiphyllum japonicum  Siebold &amp; Zucc. ex J.J.Hoffm. &amp; J.H.Schult.bis, Noms Indig. Pl. Japon (1864)
 Cercidiphyllum magnificum  (Nakai) Nakai (1920)
-Selon NCBI  (27 avr. 2010)[4] :
+Selon NCBI  (27 avr. 2010) :
 genre Cercidiphyllum
 Cercidiphyllum japonicum</t>
         </is>
